--- a/dataflow/templates/excel/AITQA_table_3.xlsx
+++ b/dataflow/templates/excel/AITQA_table_3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\UFO\dataflow\templates\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF41BFC-8F33-4169-BDA4-2B899227B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,25 +218,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -238,163 +238,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,194 +287,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -665,363 +335,193 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1032,7 +532,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1060,154 +560,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1457,19 +843,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
@@ -1481,122 +867,122 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1618,8 +1004,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1641,8 +1027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1664,8 +1050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1687,8 +1073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1710,8 +1096,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1733,8 +1119,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1756,8 +1142,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1779,8 +1165,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1802,8 +1188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1827,20 +1213,41 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2510b44e-b8a2-4198-8361-1ccaa510ba36">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c556c7a-caaf-4b81-821a-a5c250a5b4de" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046F6A3D51D70604A9265D4E8716BCA48" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="364258600822825420a654801e9ff271">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2510b44e-b8a2-4198-8361-1ccaa510ba36" xmlns:ns3="1c556c7a-caaf-4b81-821a-a5c250a5b4de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9645975feae35fb8bd16574df2008e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2046,36 +1453,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2510b44e-b8a2-4198-8361-1ccaa510ba36">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c556c7a-caaf-4b81-821a-a5c250a5b4de" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DAD5C2-3423-4507-9565-175473D66BA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0094B8-2295-4CE5-A0B3-269E6F9EABB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2510b44e-b8a2-4198-8361-1ccaa510ba36"/>
+    <ds:schemaRef ds:uri="1c556c7a-caaf-4b81-821a-a5c250a5b4de"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4589335A-2E73-413A-AC0D-1E2A3A3AFAD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4589335A-2E73-413A-AC0D-1E2A3A3AFAD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0094B8-2295-4CE5-A0B3-269E6F9EABB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90DAD5C2-3423-4507-9565-175473D66BA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2510b44e-b8a2-4198-8361-1ccaa510ba36"/>
+    <ds:schemaRef ds:uri="1c556c7a-caaf-4b81-821a-a5c250a5b4de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>